--- a/Data/EC/NIT-9009672904.xlsx
+++ b/Data/EC/NIT-9009672904.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{618968F5-7117-4F96-8324-275F1E402CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{681F849B-B56C-493F-9E76-447E557596BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9BF2D8AA-82FC-4FF3-AD59-DFD76F36A663}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C56DCBA7-C31D-4E6B-AACE-1A20AF496149}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="119">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,277 +65,301 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73185176</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO JIMENEZ ROMERO</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>9103517</t>
+  </si>
+  <si>
+    <t>TIRSO MIGUEL BERTEL MIRANDA</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>45547727</t>
+  </si>
+  <si>
+    <t>MARTHA IRINA BOBB FERNANDEZ</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>30899017</t>
+  </si>
+  <si>
+    <t>KARLA JOHANA REDONDO GARCIA</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>1001901163</t>
+  </si>
+  <si>
+    <t>STIWARD RIVERO PUERTA</t>
+  </si>
+  <si>
+    <t>8850500</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO MARTINEZ GUZMAN</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1047391240</t>
+  </si>
+  <si>
+    <t>DEINER LUIS RACERO ORTIZ</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
     <t>92129790</t>
   </si>
   <si>
     <t>JIMMY RAFAEL ESPITIA MARTINE</t>
   </si>
   <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1047391240</t>
-  </si>
-  <si>
-    <t>DEINER LUIS RACERO ORTIZ</t>
-  </si>
-  <si>
     <t>1143339250</t>
   </si>
   <si>
     <t>JHON JAIRO ANAYA LAN</t>
   </si>
   <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
     <t>1047463306</t>
   </si>
   <si>
     <t>EDINSON AYOS DIAZ</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>8850500</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO MARTINEZ GUZMAN</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>73185176</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO JIMENEZ ROMERO</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -379,7 +403,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,7 +773,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6511277-7672-5556-94D4-4E20840C68D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1655ED-17F2-6B83-7B5E-E4CBB414AFAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1100,32 +1124,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260AD9AC-3BFC-4AD4-AFFA-40D3ECA23C98}">
-  <dimension ref="B2:J253"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063BF6EF-3445-420F-8C72-B0965E721938}">
+  <dimension ref="B2:J268"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1134,7 +1158,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1145,7 +1169,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1156,7 +1180,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1167,10 +1191,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1183,8 +1207,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1199,15 +1223,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6875777</v>
+        <v>7466497</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1215,17 +1239,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F13" s="5">
         <v>79</v>
@@ -1235,7 +1259,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1255,16 +1279,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24821</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>689454</v>
@@ -1287,7 +1311,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1298,355 +1322,355 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>17466</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>24821</v>
+        <v>39600</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>13789</v>
+        <v>44000</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>27578</v>
+        <v>44000</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="18">
-        <v>25740</v>
+        <v>44000</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>27578</v>
+        <v>44000</v>
       </c>
       <c r="G22" s="18">
-        <v>689454</v>
+        <v>1100000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>27578</v>
+        <v>44000</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>44000</v>
       </c>
       <c r="G24" s="18">
-        <v>689454</v>
+        <v>1100000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F25" s="18">
-        <v>27578</v>
+        <v>35120</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>35120</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F27" s="18">
-        <v>27578</v>
+        <v>35120</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>27578</v>
+        <v>35120</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
-        <v>27578</v>
+        <v>35120</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F30" s="18">
-        <v>27578</v>
+        <v>35120</v>
       </c>
       <c r="G30" s="18">
-        <v>689454</v>
+        <v>737717</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F31" s="18">
-        <v>27578</v>
+        <v>36400</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>910000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F32" s="18">
-        <v>27578</v>
+        <v>25740</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1655,21 +1679,21 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
-        <v>27578</v>
+        <v>3125</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1678,44 +1702,44 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F34" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1724,21 +1748,21 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1747,21 +1771,21 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F37" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1770,44 +1794,44 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F38" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F39" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1816,21 +1840,21 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1839,44 +1863,44 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F42" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1885,44 +1909,44 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F44" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1931,21 +1955,21 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1954,21 +1978,21 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F46" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1977,21 +2001,21 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F47" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -2000,21 +2024,21 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F48" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -2023,21 +2047,21 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F49" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2046,44 +2070,44 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F50" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F51" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2092,44 +2116,44 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2138,21 +2162,21 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F54" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2161,21 +2185,21 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F55" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2184,21 +2208,21 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F56" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2207,21 +2231,21 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2230,44 +2254,44 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F58" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F59" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2276,21 +2300,21 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F60" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2299,44 +2323,44 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F61" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F62" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2345,21 +2369,21 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2368,21 +2392,21 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2391,44 +2415,44 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F66" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2437,44 +2461,44 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F67" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F68" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2483,18 +2507,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F69" s="18">
         <v>27578</v>
@@ -2506,41 +2530,41 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="F70" s="18">
         <v>27578</v>
       </c>
       <c r="G70" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F71" s="18">
         <v>27578</v>
@@ -2552,18 +2576,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F72" s="18">
         <v>27578</v>
@@ -2575,18 +2599,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F73" s="18">
         <v>27578</v>
@@ -2598,18 +2622,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F74" s="18">
         <v>27578</v>
@@ -2621,41 +2645,41 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="F75" s="18">
         <v>27578</v>
       </c>
       <c r="G75" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F76" s="18">
         <v>27578</v>
@@ -2667,18 +2691,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F77" s="18">
         <v>27578</v>
@@ -2690,18 +2714,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="F78" s="18">
         <v>27578</v>
@@ -2713,18 +2737,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F79" s="18">
         <v>27578</v>
@@ -2736,18 +2760,18 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F80" s="18">
         <v>27578</v>
@@ -2759,18 +2783,18 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F81" s="18">
         <v>27578</v>
@@ -2782,18 +2806,18 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F82" s="18">
         <v>27578</v>
@@ -2805,18 +2829,18 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F83" s="18">
         <v>27578</v>
@@ -2828,18 +2852,18 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F84" s="18">
         <v>27578</v>
@@ -2851,18 +2875,18 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F85" s="18">
         <v>27578</v>
@@ -2874,18 +2898,18 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F86" s="18">
         <v>27578</v>
@@ -2897,18 +2921,18 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F87" s="18">
         <v>27578</v>
@@ -2920,18 +2944,18 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="F88" s="18">
         <v>27578</v>
@@ -2943,18 +2967,18 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F89" s="18">
         <v>27578</v>
@@ -2966,18 +2990,18 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F90" s="18">
         <v>27578</v>
@@ -2989,21 +3013,21 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="F91" s="18">
-        <v>27578</v>
+        <v>17466</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -3012,366 +3036,366 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F92" s="18">
         <v>27578</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F93" s="18">
         <v>27578</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F94" s="18">
         <v>27578</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F95" s="18">
         <v>27578</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F96" s="18">
         <v>27578</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F97" s="18">
         <v>27578</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="F98" s="18">
         <v>27578</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="F99" s="18">
         <v>27578</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>24821</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>28124</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3380,18 +3404,18 @@
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3403,18 +3427,18 @@
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3426,18 +3450,18 @@
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F110" s="18">
         <v>31249</v>
@@ -3449,18 +3473,18 @@
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3472,18 +3496,18 @@
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3495,18 +3519,18 @@
       <c r="I112" s="19"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3518,18 +3542,18 @@
       <c r="I113" s="19"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3541,18 +3565,18 @@
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3564,18 +3588,18 @@
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
@@ -3587,18 +3611,18 @@
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3610,18 +3634,18 @@
       <c r="I117" s="19"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3633,18 +3657,18 @@
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3656,18 +3680,18 @@
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3679,18 +3703,18 @@
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3702,18 +3726,18 @@
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
@@ -3725,18 +3749,18 @@
       <c r="I122" s="19"/>
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
@@ -3748,18 +3772,18 @@
       <c r="I123" s="19"/>
       <c r="J123" s="20"/>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
@@ -3771,18 +3795,18 @@
       <c r="I124" s="19"/>
       <c r="J124" s="20"/>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
@@ -3794,18 +3818,18 @@
       <c r="I125" s="19"/>
       <c r="J125" s="20"/>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="F126" s="18">
         <v>31249</v>
@@ -3817,18 +3841,18 @@
       <c r="I126" s="19"/>
       <c r="J126" s="20"/>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3840,18 +3864,18 @@
       <c r="I127" s="19"/>
       <c r="J127" s="20"/>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F128" s="18">
         <v>31249</v>
@@ -3863,18 +3887,18 @@
       <c r="I128" s="19"/>
       <c r="J128" s="20"/>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3886,18 +3910,18 @@
       <c r="I129" s="19"/>
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -3909,18 +3933,18 @@
       <c r="I130" s="19"/>
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
@@ -3932,18 +3956,18 @@
       <c r="I131" s="19"/>
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -3955,18 +3979,18 @@
       <c r="I132" s="19"/>
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -3978,18 +4002,18 @@
       <c r="I133" s="19"/>
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
@@ -4001,18 +4025,18 @@
       <c r="I134" s="19"/>
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -4024,18 +4048,18 @@
       <c r="I135" s="19"/>
       <c r="J135" s="20"/>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -4047,18 +4071,18 @@
       <c r="I136" s="19"/>
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4070,18 +4094,18 @@
       <c r="I137" s="19"/>
       <c r="J137" s="20"/>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4093,18 +4117,18 @@
       <c r="I138" s="19"/>
       <c r="J138" s="20"/>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4116,18 +4140,18 @@
       <c r="I139" s="19"/>
       <c r="J139" s="20"/>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4139,18 +4163,18 @@
       <c r="I140" s="19"/>
       <c r="J140" s="20"/>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4162,18 +4186,18 @@
       <c r="I141" s="19"/>
       <c r="J141" s="20"/>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4185,18 +4209,18 @@
       <c r="I142" s="19"/>
       <c r="J142" s="20"/>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4208,18 +4232,18 @@
       <c r="I143" s="19"/>
       <c r="J143" s="20"/>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4231,18 +4255,18 @@
       <c r="I144" s="19"/>
       <c r="J144" s="20"/>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4254,18 +4278,18 @@
       <c r="I145" s="19"/>
       <c r="J145" s="20"/>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4277,18 +4301,18 @@
       <c r="I146" s="19"/>
       <c r="J146" s="20"/>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4300,18 +4324,18 @@
       <c r="I147" s="19"/>
       <c r="J147" s="20"/>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4323,18 +4347,18 @@
       <c r="I148" s="19"/>
       <c r="J148" s="20"/>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4346,18 +4370,18 @@
       <c r="I149" s="19"/>
       <c r="J149" s="20"/>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4369,18 +4393,18 @@
       <c r="I150" s="19"/>
       <c r="J150" s="20"/>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4392,18 +4416,18 @@
       <c r="I151" s="19"/>
       <c r="J151" s="20"/>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4415,18 +4439,18 @@
       <c r="I152" s="19"/>
       <c r="J152" s="20"/>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
@@ -4438,18 +4462,18 @@
       <c r="I153" s="19"/>
       <c r="J153" s="20"/>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
@@ -4461,18 +4485,18 @@
       <c r="I154" s="19"/>
       <c r="J154" s="20"/>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
@@ -4484,18 +4508,18 @@
       <c r="I155" s="19"/>
       <c r="J155" s="20"/>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
@@ -4507,18 +4531,18 @@
       <c r="I156" s="19"/>
       <c r="J156" s="20"/>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4530,15 +4554,15 @@
       <c r="I157" s="19"/>
       <c r="J157" s="20"/>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E158" s="16" t="s">
         <v>63</v>
@@ -4553,18 +4577,18 @@
       <c r="I158" s="19"/>
       <c r="J158" s="20"/>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4576,18 +4600,18 @@
       <c r="I159" s="19"/>
       <c r="J159" s="20"/>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F160" s="18">
         <v>31249</v>
@@ -4599,18 +4623,18 @@
       <c r="I160" s="19"/>
       <c r="J160" s="20"/>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4622,18 +4646,18 @@
       <c r="I161" s="19"/>
       <c r="J161" s="20"/>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
@@ -4645,21 +4669,21 @@
       <c r="I162" s="19"/>
       <c r="J162" s="20"/>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F163" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G163" s="18">
         <v>781242</v>
@@ -4668,21 +4692,21 @@
       <c r="I163" s="19"/>
       <c r="J163" s="20"/>
     </row>
-    <row r="164" spans="2:10">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F164" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G164" s="18">
         <v>781242</v>
@@ -4691,21 +4715,21 @@
       <c r="I164" s="19"/>
       <c r="J164" s="20"/>
     </row>
-    <row r="165" spans="2:10">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F165" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G165" s="18">
         <v>781242</v>
@@ -4714,21 +4738,21 @@
       <c r="I165" s="19"/>
       <c r="J165" s="20"/>
     </row>
-    <row r="166" spans="2:10">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F166" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G166" s="18">
         <v>781242</v>
@@ -4737,21 +4761,21 @@
       <c r="I166" s="19"/>
       <c r="J166" s="20"/>
     </row>
-    <row r="167" spans="2:10">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F167" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G167" s="18">
         <v>781242</v>
@@ -4760,21 +4784,21 @@
       <c r="I167" s="19"/>
       <c r="J167" s="20"/>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F168" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G168" s="18">
         <v>781242</v>
@@ -4783,21 +4807,21 @@
       <c r="I168" s="19"/>
       <c r="J168" s="20"/>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F169" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G169" s="18">
         <v>781242</v>
@@ -4806,21 +4830,21 @@
       <c r="I169" s="19"/>
       <c r="J169" s="20"/>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F170" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G170" s="18">
         <v>781242</v>
@@ -4829,21 +4853,21 @@
       <c r="I170" s="19"/>
       <c r="J170" s="20"/>
     </row>
-    <row r="171" spans="2:10">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F171" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G171" s="18">
         <v>781242</v>
@@ -4852,21 +4876,21 @@
       <c r="I171" s="19"/>
       <c r="J171" s="20"/>
     </row>
-    <row r="172" spans="2:10">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F172" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G172" s="18">
         <v>781242</v>
@@ -4875,21 +4899,21 @@
       <c r="I172" s="19"/>
       <c r="J172" s="20"/>
     </row>
-    <row r="173" spans="2:10">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="F173" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G173" s="18">
         <v>781242</v>
@@ -4898,21 +4922,21 @@
       <c r="I173" s="19"/>
       <c r="J173" s="20"/>
     </row>
-    <row r="174" spans="2:10">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F174" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G174" s="18">
         <v>781242</v>
@@ -4921,21 +4945,21 @@
       <c r="I174" s="19"/>
       <c r="J174" s="20"/>
     </row>
-    <row r="175" spans="2:10">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B175" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F175" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G175" s="18">
         <v>781242</v>
@@ -4944,21 +4968,21 @@
       <c r="I175" s="19"/>
       <c r="J175" s="20"/>
     </row>
-    <row r="176" spans="2:10">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B176" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F176" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G176" s="18">
         <v>781242</v>
@@ -4967,21 +4991,21 @@
       <c r="I176" s="19"/>
       <c r="J176" s="20"/>
     </row>
-    <row r="177" spans="2:10">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B177" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F177" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G177" s="18">
         <v>781242</v>
@@ -4990,21 +5014,21 @@
       <c r="I177" s="19"/>
       <c r="J177" s="20"/>
     </row>
-    <row r="178" spans="2:10">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B178" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F178" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G178" s="18">
         <v>781242</v>
@@ -5013,21 +5037,21 @@
       <c r="I178" s="19"/>
       <c r="J178" s="20"/>
     </row>
-    <row r="179" spans="2:10">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B179" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F179" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G179" s="18">
         <v>781242</v>
@@ -5036,21 +5060,21 @@
       <c r="I179" s="19"/>
       <c r="J179" s="20"/>
     </row>
-    <row r="180" spans="2:10">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B180" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F180" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G180" s="18">
         <v>781242</v>
@@ -5059,21 +5083,21 @@
       <c r="I180" s="19"/>
       <c r="J180" s="20"/>
     </row>
-    <row r="181" spans="2:10">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B181" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F181" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G181" s="18">
         <v>781242</v>
@@ -5082,21 +5106,21 @@
       <c r="I181" s="19"/>
       <c r="J181" s="20"/>
     </row>
-    <row r="182" spans="2:10">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B182" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F182" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G182" s="18">
         <v>781242</v>
@@ -5105,21 +5129,21 @@
       <c r="I182" s="19"/>
       <c r="J182" s="20"/>
     </row>
-    <row r="183" spans="2:10">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B183" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F183" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G183" s="18">
         <v>781242</v>
@@ -5128,21 +5152,21 @@
       <c r="I183" s="19"/>
       <c r="J183" s="20"/>
     </row>
-    <row r="184" spans="2:10">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B184" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F184" s="18">
-        <v>31249</v>
+        <v>24821</v>
       </c>
       <c r="G184" s="18">
         <v>781242</v>
@@ -5151,21 +5175,21 @@
       <c r="I184" s="19"/>
       <c r="J184" s="20"/>
     </row>
-    <row r="185" spans="2:10">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B185" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D185" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E185" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E185" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="F185" s="18">
-        <v>31249</v>
+        <v>28124</v>
       </c>
       <c r="G185" s="18">
         <v>781242</v>
@@ -5174,18 +5198,18 @@
       <c r="I185" s="19"/>
       <c r="J185" s="20"/>
     </row>
-    <row r="186" spans="2:10">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B186" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="F186" s="18">
         <v>31249</v>
@@ -5197,18 +5221,18 @@
       <c r="I186" s="19"/>
       <c r="J186" s="20"/>
     </row>
-    <row r="187" spans="2:10">
+    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B187" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="F187" s="18">
         <v>31249</v>
@@ -5220,18 +5244,18 @@
       <c r="I187" s="19"/>
       <c r="J187" s="20"/>
     </row>
-    <row r="188" spans="2:10">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B188" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="F188" s="18">
         <v>31249</v>
@@ -5243,18 +5267,18 @@
       <c r="I188" s="19"/>
       <c r="J188" s="20"/>
     </row>
-    <row r="189" spans="2:10">
+    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B189" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="F189" s="18">
         <v>31249</v>
@@ -5266,18 +5290,18 @@
       <c r="I189" s="19"/>
       <c r="J189" s="20"/>
     </row>
-    <row r="190" spans="2:10">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B190" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="F190" s="18">
         <v>31249</v>
@@ -5289,18 +5313,18 @@
       <c r="I190" s="19"/>
       <c r="J190" s="20"/>
     </row>
-    <row r="191" spans="2:10">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B191" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
@@ -5312,18 +5336,18 @@
       <c r="I191" s="19"/>
       <c r="J191" s="20"/>
     </row>
-    <row r="192" spans="2:10">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B192" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="F192" s="18">
         <v>31249</v>
@@ -5335,18 +5359,18 @@
       <c r="I192" s="19"/>
       <c r="J192" s="20"/>
     </row>
-    <row r="193" spans="2:10">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B193" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F193" s="18">
         <v>31249</v>
@@ -5358,18 +5382,18 @@
       <c r="I193" s="19"/>
       <c r="J193" s="20"/>
     </row>
-    <row r="194" spans="2:10">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B194" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F194" s="18">
         <v>31249</v>
@@ -5381,18 +5405,18 @@
       <c r="I194" s="19"/>
       <c r="J194" s="20"/>
     </row>
-    <row r="195" spans="2:10">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B195" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F195" s="18">
         <v>31249</v>
@@ -5404,18 +5428,18 @@
       <c r="I195" s="19"/>
       <c r="J195" s="20"/>
     </row>
-    <row r="196" spans="2:10">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B196" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F196" s="18">
         <v>31249</v>
@@ -5427,18 +5451,18 @@
       <c r="I196" s="19"/>
       <c r="J196" s="20"/>
     </row>
-    <row r="197" spans="2:10">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B197" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F197" s="18">
         <v>31249</v>
@@ -5450,18 +5474,18 @@
       <c r="I197" s="19"/>
       <c r="J197" s="20"/>
     </row>
-    <row r="198" spans="2:10">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="F198" s="18">
         <v>31249</v>
@@ -5473,18 +5497,18 @@
       <c r="I198" s="19"/>
       <c r="J198" s="20"/>
     </row>
-    <row r="199" spans="2:10">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B199" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F199" s="18">
         <v>31249</v>
@@ -5496,18 +5520,18 @@
       <c r="I199" s="19"/>
       <c r="J199" s="20"/>
     </row>
-    <row r="200" spans="2:10">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F200" s="18">
         <v>31249</v>
@@ -5519,18 +5543,18 @@
       <c r="I200" s="19"/>
       <c r="J200" s="20"/>
     </row>
-    <row r="201" spans="2:10">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B201" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F201" s="18">
         <v>31249</v>
@@ -5542,18 +5566,18 @@
       <c r="I201" s="19"/>
       <c r="J201" s="20"/>
     </row>
-    <row r="202" spans="2:10">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B202" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="F202" s="18">
         <v>31249</v>
@@ -5565,18 +5589,18 @@
       <c r="I202" s="19"/>
       <c r="J202" s="20"/>
     </row>
-    <row r="203" spans="2:10">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B203" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F203" s="18">
         <v>31249</v>
@@ -5588,18 +5612,18 @@
       <c r="I203" s="19"/>
       <c r="J203" s="20"/>
     </row>
-    <row r="204" spans="2:10">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="F204" s="18">
         <v>31249</v>
@@ -5611,18 +5635,18 @@
       <c r="I204" s="19"/>
       <c r="J204" s="20"/>
     </row>
-    <row r="205" spans="2:10">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B205" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="F205" s="18">
         <v>31249</v>
@@ -5634,18 +5658,18 @@
       <c r="I205" s="19"/>
       <c r="J205" s="20"/>
     </row>
-    <row r="206" spans="2:10">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B206" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="F206" s="18">
         <v>31249</v>
@@ -5657,21 +5681,21 @@
       <c r="I206" s="19"/>
       <c r="J206" s="20"/>
     </row>
-    <row r="207" spans="2:10">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B207" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="F207" s="18">
-        <v>3125</v>
+        <v>31249</v>
       </c>
       <c r="G207" s="18">
         <v>781242</v>
@@ -5680,18 +5704,18 @@
       <c r="I207" s="19"/>
       <c r="J207" s="20"/>
     </row>
-    <row r="208" spans="2:10">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B208" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F208" s="18">
         <v>31249</v>
@@ -5703,18 +5727,18 @@
       <c r="I208" s="19"/>
       <c r="J208" s="20"/>
     </row>
-    <row r="209" spans="2:10">
+    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B209" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F209" s="18">
         <v>31249</v>
@@ -5726,18 +5750,18 @@
       <c r="I209" s="19"/>
       <c r="J209" s="20"/>
     </row>
-    <row r="210" spans="2:10">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B210" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="F210" s="18">
         <v>31249</v>
@@ -5749,18 +5773,18 @@
       <c r="I210" s="19"/>
       <c r="J210" s="20"/>
     </row>
-    <row r="211" spans="2:10">
+    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B211" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="F211" s="18">
         <v>31249</v>
@@ -5772,18 +5796,18 @@
       <c r="I211" s="19"/>
       <c r="J211" s="20"/>
     </row>
-    <row r="212" spans="2:10">
+    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B212" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F212" s="18">
         <v>31249</v>
@@ -5795,18 +5819,18 @@
       <c r="I212" s="19"/>
       <c r="J212" s="20"/>
     </row>
-    <row r="213" spans="2:10">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B213" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="F213" s="18">
         <v>31249</v>
@@ -5818,18 +5842,18 @@
       <c r="I213" s="19"/>
       <c r="J213" s="20"/>
     </row>
-    <row r="214" spans="2:10">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B214" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="F214" s="18">
         <v>31249</v>
@@ -5841,18 +5865,18 @@
       <c r="I214" s="19"/>
       <c r="J214" s="20"/>
     </row>
-    <row r="215" spans="2:10">
+    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B215" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F215" s="18">
         <v>31249</v>
@@ -5864,18 +5888,18 @@
       <c r="I215" s="19"/>
       <c r="J215" s="20"/>
     </row>
-    <row r="216" spans="2:10">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B216" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="F216" s="18">
         <v>31249</v>
@@ -5887,18 +5911,18 @@
       <c r="I216" s="19"/>
       <c r="J216" s="20"/>
     </row>
-    <row r="217" spans="2:10">
+    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B217" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="F217" s="18">
         <v>31249</v>
@@ -5910,18 +5934,18 @@
       <c r="I217" s="19"/>
       <c r="J217" s="20"/>
     </row>
-    <row r="218" spans="2:10">
+    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B218" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F218" s="18">
         <v>31249</v>
@@ -5933,18 +5957,18 @@
       <c r="I218" s="19"/>
       <c r="J218" s="20"/>
     </row>
-    <row r="219" spans="2:10">
+    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B219" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="F219" s="18">
         <v>31249</v>
@@ -5956,18 +5980,18 @@
       <c r="I219" s="19"/>
       <c r="J219" s="20"/>
     </row>
-    <row r="220" spans="2:10">
+    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B220" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="F220" s="18">
         <v>31249</v>
@@ -5979,18 +6003,18 @@
       <c r="I220" s="19"/>
       <c r="J220" s="20"/>
     </row>
-    <row r="221" spans="2:10">
+    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B221" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="F221" s="18">
         <v>31249</v>
@@ -6002,18 +6026,18 @@
       <c r="I221" s="19"/>
       <c r="J221" s="20"/>
     </row>
-    <row r="222" spans="2:10">
+    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B222" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="F222" s="18">
         <v>31249</v>
@@ -6025,18 +6049,18 @@
       <c r="I222" s="19"/>
       <c r="J222" s="20"/>
     </row>
-    <row r="223" spans="2:10">
+    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B223" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F223" s="18">
         <v>31249</v>
@@ -6048,18 +6072,18 @@
       <c r="I223" s="19"/>
       <c r="J223" s="20"/>
     </row>
-    <row r="224" spans="2:10">
+    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B224" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="F224" s="18">
         <v>31249</v>
@@ -6071,18 +6095,18 @@
       <c r="I224" s="19"/>
       <c r="J224" s="20"/>
     </row>
-    <row r="225" spans="2:10">
+    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B225" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="F225" s="18">
         <v>31249</v>
@@ -6094,18 +6118,18 @@
       <c r="I225" s="19"/>
       <c r="J225" s="20"/>
     </row>
-    <row r="226" spans="2:10">
+    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B226" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="F226" s="18">
         <v>31249</v>
@@ -6117,18 +6141,18 @@
       <c r="I226" s="19"/>
       <c r="J226" s="20"/>
     </row>
-    <row r="227" spans="2:10">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B227" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="F227" s="18">
         <v>31249</v>
@@ -6140,18 +6164,18 @@
       <c r="I227" s="19"/>
       <c r="J227" s="20"/>
     </row>
-    <row r="228" spans="2:10">
+    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B228" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F228" s="18">
         <v>31249</v>
@@ -6163,18 +6187,18 @@
       <c r="I228" s="19"/>
       <c r="J228" s="20"/>
     </row>
-    <row r="229" spans="2:10">
+    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B229" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F229" s="18">
         <v>31249</v>
@@ -6186,18 +6210,18 @@
       <c r="I229" s="19"/>
       <c r="J229" s="20"/>
     </row>
-    <row r="230" spans="2:10">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B230" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="F230" s="18">
         <v>31249</v>
@@ -6209,18 +6233,18 @@
       <c r="I230" s="19"/>
       <c r="J230" s="20"/>
     </row>
-    <row r="231" spans="2:10">
+    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B231" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="F231" s="18">
         <v>31249</v>
@@ -6232,18 +6256,18 @@
       <c r="I231" s="19"/>
       <c r="J231" s="20"/>
     </row>
-    <row r="232" spans="2:10">
+    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B232" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F232" s="18">
         <v>31249</v>
@@ -6255,18 +6279,18 @@
       <c r="I232" s="19"/>
       <c r="J232" s="20"/>
     </row>
-    <row r="233" spans="2:10">
+    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B233" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F233" s="18">
         <v>31249</v>
@@ -6278,18 +6302,18 @@
       <c r="I233" s="19"/>
       <c r="J233" s="20"/>
     </row>
-    <row r="234" spans="2:10">
+    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B234" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F234" s="18">
         <v>31249</v>
@@ -6301,18 +6325,18 @@
       <c r="I234" s="19"/>
       <c r="J234" s="20"/>
     </row>
-    <row r="235" spans="2:10">
+    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B235" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="F235" s="18">
         <v>31249</v>
@@ -6324,18 +6348,18 @@
       <c r="I235" s="19"/>
       <c r="J235" s="20"/>
     </row>
-    <row r="236" spans="2:10">
+    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B236" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="F236" s="18">
         <v>31249</v>
@@ -6347,18 +6371,18 @@
       <c r="I236" s="19"/>
       <c r="J236" s="20"/>
     </row>
-    <row r="237" spans="2:10">
+    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B237" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F237" s="18">
         <v>31249</v>
@@ -6370,18 +6394,18 @@
       <c r="I237" s="19"/>
       <c r="J237" s="20"/>
     </row>
-    <row r="238" spans="2:10">
+    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B238" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F238" s="18">
         <v>31249</v>
@@ -6393,18 +6417,18 @@
       <c r="I238" s="19"/>
       <c r="J238" s="20"/>
     </row>
-    <row r="239" spans="2:10">
+    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B239" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F239" s="18">
         <v>31249</v>
@@ -6416,18 +6440,18 @@
       <c r="I239" s="19"/>
       <c r="J239" s="20"/>
     </row>
-    <row r="240" spans="2:10">
+    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B240" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F240" s="18">
         <v>31249</v>
@@ -6439,21 +6463,21 @@
       <c r="I240" s="19"/>
       <c r="J240" s="20"/>
     </row>
-    <row r="241" spans="2:10">
+    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B241" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F241" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G241" s="18">
         <v>781242</v>
@@ -6462,21 +6486,21 @@
       <c r="I241" s="19"/>
       <c r="J241" s="20"/>
     </row>
-    <row r="242" spans="2:10">
+    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B242" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F242" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G242" s="18">
         <v>781242</v>
@@ -6485,21 +6509,21 @@
       <c r="I242" s="19"/>
       <c r="J242" s="20"/>
     </row>
-    <row r="243" spans="2:10">
+    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B243" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F243" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G243" s="18">
         <v>781242</v>
@@ -6508,21 +6532,21 @@
       <c r="I243" s="19"/>
       <c r="J243" s="20"/>
     </row>
-    <row r="244" spans="2:10">
+    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B244" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F244" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G244" s="18">
         <v>781242</v>
@@ -6531,21 +6555,21 @@
       <c r="I244" s="19"/>
       <c r="J244" s="20"/>
     </row>
-    <row r="245" spans="2:10">
+    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B245" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F245" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G245" s="18">
         <v>781242</v>
@@ -6554,21 +6578,21 @@
       <c r="I245" s="19"/>
       <c r="J245" s="20"/>
     </row>
-    <row r="246" spans="2:10">
+    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B246" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F246" s="18">
-        <v>28124</v>
+        <v>27578</v>
       </c>
       <c r="G246" s="18">
         <v>781242</v>
@@ -6577,57 +6601,402 @@
       <c r="I246" s="19"/>
       <c r="J246" s="20"/>
     </row>
-    <row r="247" spans="2:10">
-      <c r="B247" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D247" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E247" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F247" s="24">
-        <v>28124</v>
-      </c>
-      <c r="G247" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H247" s="25"/>
-      <c r="I247" s="25"/>
-      <c r="J247" s="26"/>
-    </row>
-    <row r="252" spans="2:10">
-      <c r="B252" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C252" s="32"/>
-      <c r="H252" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I252" s="1"/>
-      <c r="J252" s="1"/>
-    </row>
-    <row r="253" spans="2:10">
-      <c r="B253" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C253" s="32"/>
-      <c r="H253" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I253" s="1"/>
-      <c r="J253" s="1"/>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B247" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E247" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F247" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G247" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H247" s="19"/>
+      <c r="I247" s="19"/>
+      <c r="J247" s="20"/>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B248" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E248" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F248" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G248" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H248" s="19"/>
+      <c r="I248" s="19"/>
+      <c r="J248" s="20"/>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B249" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E249" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F249" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G249" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H249" s="19"/>
+      <c r="I249" s="19"/>
+      <c r="J249" s="20"/>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B250" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E250" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F250" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G250" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H250" s="19"/>
+      <c r="I250" s="19"/>
+      <c r="J250" s="20"/>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B251" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E251" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F251" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G251" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H251" s="19"/>
+      <c r="I251" s="19"/>
+      <c r="J251" s="20"/>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B252" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E252" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F252" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G252" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H252" s="19"/>
+      <c r="I252" s="19"/>
+      <c r="J252" s="20"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B253" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E253" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F253" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G253" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H253" s="19"/>
+      <c r="I253" s="19"/>
+      <c r="J253" s="20"/>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B254" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E254" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F254" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G254" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H254" s="19"/>
+      <c r="I254" s="19"/>
+      <c r="J254" s="20"/>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B255" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D255" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E255" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F255" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G255" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H255" s="19"/>
+      <c r="I255" s="19"/>
+      <c r="J255" s="20"/>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B256" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D256" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E256" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F256" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G256" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H256" s="19"/>
+      <c r="I256" s="19"/>
+      <c r="J256" s="20"/>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B257" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D257" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E257" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F257" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G257" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H257" s="19"/>
+      <c r="I257" s="19"/>
+      <c r="J257" s="20"/>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B258" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D258" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E258" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F258" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G258" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H258" s="19"/>
+      <c r="I258" s="19"/>
+      <c r="J258" s="20"/>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B259" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E259" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F259" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G259" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H259" s="19"/>
+      <c r="I259" s="19"/>
+      <c r="J259" s="20"/>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B260" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E260" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F260" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G260" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H260" s="19"/>
+      <c r="I260" s="19"/>
+      <c r="J260" s="20"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B261" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E261" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F261" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G261" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H261" s="19"/>
+      <c r="I261" s="19"/>
+      <c r="J261" s="20"/>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B262" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D262" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E262" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F262" s="24">
+        <v>13789</v>
+      </c>
+      <c r="G262" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H262" s="25"/>
+      <c r="I262" s="25"/>
+      <c r="J262" s="26"/>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B267" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C267" s="32"/>
+      <c r="H267" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1"/>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B268" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C268" s="32"/>
+      <c r="H268" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="H253:J253"/>
-    <mergeCell ref="H252:J252"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="H268:J268"/>
+    <mergeCell ref="H267:J267"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009672904.xlsx
+++ b/Data/EC/NIT-9009672904.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{681F849B-B56C-493F-9E76-447E557596BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C57E1D68-433A-46D7-8424-44511B8D934D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C56DCBA7-C31D-4E6B-AACE-1A20AF496149}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4C872A47-0C54-4E39-8154-0E17BE5E4989}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="111">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,72 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047391240</t>
+  </si>
+  <si>
+    <t>DEINER LUIS RACERO ORTIZ</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>92129790</t>
+  </si>
+  <si>
+    <t>JIMMY RAFAEL ESPITIA MARTINEZ</t>
+  </si>
+  <si>
+    <t>1143339250</t>
+  </si>
+  <si>
+    <t>JHON JAIRO ANAYA LAN</t>
+  </si>
+  <si>
+    <t>8850500</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO MARTINEZ GUZMAN</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1047463306</t>
+  </si>
+  <si>
+    <t>EDINSON AYOS DIAZ</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
     <t>73185176</t>
   </si>
   <si>
@@ -74,292 +140,202 @@
     <t>1710</t>
   </si>
   <si>
-    <t>9103517</t>
-  </si>
-  <si>
-    <t>TIRSO MIGUEL BERTEL MIRANDA</t>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
   </si>
   <si>
     <t>2108</t>
   </si>
   <si>
-    <t>45547727</t>
-  </si>
-  <si>
-    <t>MARTHA IRINA BOBB FERNANDEZ</t>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
   </si>
   <si>
     <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>30899017</t>
-  </si>
-  <si>
-    <t>KARLA JOHANA REDONDO GARCIA</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>1001901163</t>
-  </si>
-  <si>
-    <t>STIWARD RIVERO PUERTA</t>
-  </si>
-  <si>
-    <t>8850500</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO MARTINEZ GUZMAN</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1047391240</t>
-  </si>
-  <si>
-    <t>DEINER LUIS RACERO ORTIZ</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>92129790</t>
-  </si>
-  <si>
-    <t>JIMMY RAFAEL ESPITIA MARTINE</t>
-  </si>
-  <si>
-    <t>1143339250</t>
-  </si>
-  <si>
-    <t>JHON JAIRO ANAYA LAN</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>1047463306</t>
-  </si>
-  <si>
-    <t>EDINSON AYOS DIAZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -403,7 +379,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,7 +434,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -471,9 +449,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -673,23 +649,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,10 +693,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,13 +734,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -773,7 +749,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1655ED-17F2-6B83-7B5E-E4CBB414AFAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACC82B1-FB3F-ABFB-C360-233780827FF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -795,7 +771,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1124,32 +1100,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063BF6EF-3445-420F-8C72-B0965E721938}">
-  <dimension ref="B2:J268"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D420EB3-5746-44EE-A8D8-509B4D36A1D5}">
+  <dimension ref="B2:J253"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1158,7 +1134,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1169,7 +1145,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1180,7 +1156,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1191,10 +1167,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1207,8 +1183,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1223,15 +1199,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7466497</v>
+        <v>6875777</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1239,17 +1215,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F13" s="5">
         <v>79</v>
@@ -1259,7 +1235,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1279,16 +1255,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1302,16 +1278,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27578</v>
+        <v>17466</v>
       </c>
       <c r="G16" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1322,355 +1298,355 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>24821</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>689454</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>39600</v>
+        <v>24821</v>
       </c>
       <c r="G18" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>44000</v>
+        <v>25740</v>
       </c>
       <c r="G19" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>44000</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>44000</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>1100000</v>
+        <v>689454</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>44000</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>44000</v>
+        <v>13789</v>
       </c>
       <c r="G23" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>44000</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>35120</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>689454</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>35120</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
-        <v>35120</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
-        <v>35120</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
-        <v>35120</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>689454</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F30" s="18">
-        <v>35120</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
-        <v>36400</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>910000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
-        <v>25740</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1679,44 +1655,44 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
-        <v>3125</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1725,21 +1701,21 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1748,21 +1724,21 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1771,44 +1747,44 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1817,21 +1793,21 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1840,44 +1816,44 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1886,21 +1862,21 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1909,21 +1885,21 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1932,44 +1908,44 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1978,21 +1954,21 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -2001,21 +1977,21 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -2024,44 +2000,44 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2070,21 +2046,21 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -2093,21 +2069,21 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2116,44 +2092,44 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2162,21 +2138,21 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2185,21 +2161,21 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2208,44 +2184,44 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2254,21 +2230,21 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2277,21 +2253,21 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2300,44 +2276,44 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G60" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2346,21 +2322,21 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2369,44 +2345,44 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2415,44 +2391,44 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2461,21 +2437,21 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2484,21 +2460,21 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2507,41 +2483,41 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F69" s="18">
         <v>27578</v>
       </c>
       <c r="G69" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F70" s="18">
         <v>27578</v>
@@ -2553,18 +2529,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F71" s="18">
         <v>27578</v>
@@ -2576,18 +2552,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F72" s="18">
         <v>27578</v>
@@ -2599,41 +2575,41 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F73" s="18">
         <v>27578</v>
       </c>
       <c r="G73" s="18">
-        <v>781242</v>
+        <v>689454</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F74" s="18">
         <v>27578</v>
@@ -2645,18 +2621,18 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F75" s="18">
         <v>27578</v>
@@ -2668,18 +2644,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="F76" s="18">
         <v>27578</v>
@@ -2691,18 +2667,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="F77" s="18">
         <v>27578</v>
@@ -2714,18 +2690,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="F78" s="18">
         <v>27578</v>
@@ -2737,18 +2713,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F79" s="18">
         <v>27578</v>
@@ -2760,18 +2736,18 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D80" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="F80" s="18">
         <v>27578</v>
@@ -2783,18 +2759,18 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D81" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="F81" s="18">
         <v>27578</v>
@@ -2806,18 +2782,18 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="F82" s="18">
         <v>27578</v>
@@ -2829,18 +2805,18 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="F83" s="18">
         <v>27578</v>
@@ -2852,18 +2828,18 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="F84" s="18">
         <v>27578</v>
@@ -2875,18 +2851,18 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="F85" s="18">
         <v>27578</v>
@@ -2898,18 +2874,18 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="F86" s="18">
         <v>27578</v>
@@ -2921,18 +2897,18 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F87" s="18">
         <v>27578</v>
@@ -2944,18 +2920,18 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="F88" s="18">
         <v>27578</v>
@@ -2967,18 +2943,18 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F89" s="18">
         <v>27578</v>
@@ -2990,18 +2966,18 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F90" s="18">
         <v>27578</v>
@@ -3013,21 +2989,21 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="F91" s="18">
-        <v>17466</v>
+        <v>27578</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -3036,366 +3012,366 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F92" s="18">
         <v>27578</v>
       </c>
       <c r="G92" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F93" s="18">
         <v>27578</v>
       </c>
       <c r="G93" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F94" s="18">
         <v>27578</v>
       </c>
       <c r="G94" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="F95" s="18">
         <v>27578</v>
       </c>
       <c r="G95" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="F96" s="18">
         <v>27578</v>
       </c>
       <c r="G96" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F97" s="18">
         <v>27578</v>
       </c>
       <c r="G97" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="F98" s="18">
         <v>27578</v>
       </c>
       <c r="G98" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="F99" s="18">
         <v>27578</v>
       </c>
       <c r="G99" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F100" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="F101" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F102" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="F103" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F104" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F105" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:10">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F106" s="18">
-        <v>24821</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:10">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F107" s="18">
-        <v>28124</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3404,18 +3380,18 @@
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:10">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3427,18 +3403,18 @@
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:10">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3450,18 +3426,18 @@
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:10">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F110" s="18">
         <v>31249</v>
@@ -3473,18 +3449,18 @@
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:10">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3496,18 +3472,18 @@
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:10">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3519,18 +3495,18 @@
       <c r="I112" s="19"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3542,18 +3518,18 @@
       <c r="I113" s="19"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3565,18 +3541,18 @@
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:10">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3588,18 +3564,18 @@
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:10">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
@@ -3611,18 +3587,18 @@
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:10">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3634,18 +3610,18 @@
       <c r="I117" s="19"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:10">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3657,18 +3633,18 @@
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:10">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3680,18 +3656,18 @@
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:10">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3703,18 +3679,18 @@
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:10">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3726,18 +3702,18 @@
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:10">
       <c r="B122" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
@@ -3749,18 +3725,18 @@
       <c r="I122" s="19"/>
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:10">
       <c r="B123" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
@@ -3772,18 +3748,18 @@
       <c r="I123" s="19"/>
       <c r="J123" s="20"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:10">
       <c r="B124" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
@@ -3795,18 +3771,18 @@
       <c r="I124" s="19"/>
       <c r="J124" s="20"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:10">
       <c r="B125" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
@@ -3818,18 +3794,18 @@
       <c r="I125" s="19"/>
       <c r="J125" s="20"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:10">
       <c r="B126" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="F126" s="18">
         <v>31249</v>
@@ -3841,18 +3817,18 @@
       <c r="I126" s="19"/>
       <c r="J126" s="20"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:10">
       <c r="B127" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3864,18 +3840,18 @@
       <c r="I127" s="19"/>
       <c r="J127" s="20"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:10">
       <c r="B128" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F128" s="18">
         <v>31249</v>
@@ -3887,18 +3863,18 @@
       <c r="I128" s="19"/>
       <c r="J128" s="20"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:10">
       <c r="B129" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3910,18 +3886,18 @@
       <c r="I129" s="19"/>
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:10">
       <c r="B130" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -3933,18 +3909,18 @@
       <c r="I130" s="19"/>
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:10">
       <c r="B131" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
@@ -3956,18 +3932,18 @@
       <c r="I131" s="19"/>
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:10">
       <c r="B132" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -3979,18 +3955,18 @@
       <c r="I132" s="19"/>
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:10">
       <c r="B133" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -4002,18 +3978,18 @@
       <c r="I133" s="19"/>
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:10">
       <c r="B134" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
@@ -4025,18 +4001,18 @@
       <c r="I134" s="19"/>
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:10">
       <c r="B135" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -4048,18 +4024,18 @@
       <c r="I135" s="19"/>
       <c r="J135" s="20"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:10">
       <c r="B136" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -4071,18 +4047,18 @@
       <c r="I136" s="19"/>
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:10">
       <c r="B137" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4094,18 +4070,18 @@
       <c r="I137" s="19"/>
       <c r="J137" s="20"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:10">
       <c r="B138" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4117,18 +4093,18 @@
       <c r="I138" s="19"/>
       <c r="J138" s="20"/>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:10">
       <c r="B139" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4140,18 +4116,18 @@
       <c r="I139" s="19"/>
       <c r="J139" s="20"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:10">
       <c r="B140" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4163,18 +4139,18 @@
       <c r="I140" s="19"/>
       <c r="J140" s="20"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:10">
       <c r="B141" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4186,18 +4162,18 @@
       <c r="I141" s="19"/>
       <c r="J141" s="20"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:10">
       <c r="B142" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4209,18 +4185,18 @@
       <c r="I142" s="19"/>
       <c r="J142" s="20"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:10">
       <c r="B143" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4232,18 +4208,18 @@
       <c r="I143" s="19"/>
       <c r="J143" s="20"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:10">
       <c r="B144" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4255,18 +4231,18 @@
       <c r="I144" s="19"/>
       <c r="J144" s="20"/>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:10">
       <c r="B145" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4278,18 +4254,18 @@
       <c r="I145" s="19"/>
       <c r="J145" s="20"/>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:10">
       <c r="B146" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4301,18 +4277,18 @@
       <c r="I146" s="19"/>
       <c r="J146" s="20"/>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:10">
       <c r="B147" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4324,18 +4300,18 @@
       <c r="I147" s="19"/>
       <c r="J147" s="20"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:10">
       <c r="B148" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4347,18 +4323,18 @@
       <c r="I148" s="19"/>
       <c r="J148" s="20"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:10">
       <c r="B149" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4370,18 +4346,18 @@
       <c r="I149" s="19"/>
       <c r="J149" s="20"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:10">
       <c r="B150" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4393,18 +4369,18 @@
       <c r="I150" s="19"/>
       <c r="J150" s="20"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:10">
       <c r="B151" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4416,18 +4392,18 @@
       <c r="I151" s="19"/>
       <c r="J151" s="20"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:10">
       <c r="B152" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4439,18 +4415,18 @@
       <c r="I152" s="19"/>
       <c r="J152" s="20"/>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:10">
       <c r="B153" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
@@ -4462,18 +4438,18 @@
       <c r="I153" s="19"/>
       <c r="J153" s="20"/>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:10">
       <c r="B154" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
@@ -4485,18 +4461,18 @@
       <c r="I154" s="19"/>
       <c r="J154" s="20"/>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:10">
       <c r="B155" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
@@ -4508,18 +4484,18 @@
       <c r="I155" s="19"/>
       <c r="J155" s="20"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:10">
       <c r="B156" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
@@ -4531,18 +4507,18 @@
       <c r="I156" s="19"/>
       <c r="J156" s="20"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:10">
       <c r="B157" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4554,15 +4530,15 @@
       <c r="I157" s="19"/>
       <c r="J157" s="20"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:10">
       <c r="B158" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E158" s="16" t="s">
         <v>63</v>
@@ -4577,18 +4553,18 @@
       <c r="I158" s="19"/>
       <c r="J158" s="20"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:10">
       <c r="B159" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4600,18 +4576,18 @@
       <c r="I159" s="19"/>
       <c r="J159" s="20"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:10">
       <c r="B160" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F160" s="18">
         <v>31249</v>
@@ -4623,18 +4599,18 @@
       <c r="I160" s="19"/>
       <c r="J160" s="20"/>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:10">
       <c r="B161" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4646,18 +4622,18 @@
       <c r="I161" s="19"/>
       <c r="J161" s="20"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:10">
       <c r="B162" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
@@ -4669,21 +4645,21 @@
       <c r="I162" s="19"/>
       <c r="J162" s="20"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:10">
       <c r="B163" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F163" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
         <v>781242</v>
@@ -4692,21 +4668,21 @@
       <c r="I163" s="19"/>
       <c r="J163" s="20"/>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:10">
       <c r="B164" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F164" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G164" s="18">
         <v>781242</v>
@@ -4715,21 +4691,21 @@
       <c r="I164" s="19"/>
       <c r="J164" s="20"/>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:10">
       <c r="B165" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F165" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G165" s="18">
         <v>781242</v>
@@ -4738,21 +4714,21 @@
       <c r="I165" s="19"/>
       <c r="J165" s="20"/>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:10">
       <c r="B166" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F166" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G166" s="18">
         <v>781242</v>
@@ -4761,21 +4737,21 @@
       <c r="I166" s="19"/>
       <c r="J166" s="20"/>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:10">
       <c r="B167" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F167" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G167" s="18">
         <v>781242</v>
@@ -4784,21 +4760,21 @@
       <c r="I167" s="19"/>
       <c r="J167" s="20"/>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:10">
       <c r="B168" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F168" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G168" s="18">
         <v>781242</v>
@@ -4807,21 +4783,21 @@
       <c r="I168" s="19"/>
       <c r="J168" s="20"/>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:10">
       <c r="B169" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F169" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G169" s="18">
         <v>781242</v>
@@ -4830,21 +4806,21 @@
       <c r="I169" s="19"/>
       <c r="J169" s="20"/>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:10">
       <c r="B170" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F170" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G170" s="18">
         <v>781242</v>
@@ -4853,21 +4829,21 @@
       <c r="I170" s="19"/>
       <c r="J170" s="20"/>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:10">
       <c r="B171" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F171" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G171" s="18">
         <v>781242</v>
@@ -4876,21 +4852,21 @@
       <c r="I171" s="19"/>
       <c r="J171" s="20"/>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:10">
       <c r="B172" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F172" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G172" s="18">
         <v>781242</v>
@@ -4899,21 +4875,21 @@
       <c r="I172" s="19"/>
       <c r="J172" s="20"/>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:10">
       <c r="B173" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F173" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G173" s="18">
         <v>781242</v>
@@ -4922,21 +4898,21 @@
       <c r="I173" s="19"/>
       <c r="J173" s="20"/>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:10">
       <c r="B174" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F174" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G174" s="18">
         <v>781242</v>
@@ -4945,21 +4921,21 @@
       <c r="I174" s="19"/>
       <c r="J174" s="20"/>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:10">
       <c r="B175" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F175" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G175" s="18">
         <v>781242</v>
@@ -4968,21 +4944,21 @@
       <c r="I175" s="19"/>
       <c r="J175" s="20"/>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:10">
       <c r="B176" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F176" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G176" s="18">
         <v>781242</v>
@@ -4991,21 +4967,21 @@
       <c r="I176" s="19"/>
       <c r="J176" s="20"/>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:10">
       <c r="B177" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F177" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G177" s="18">
         <v>781242</v>
@@ -5014,21 +4990,21 @@
       <c r="I177" s="19"/>
       <c r="J177" s="20"/>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:10">
       <c r="B178" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F178" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G178" s="18">
         <v>781242</v>
@@ -5037,21 +5013,21 @@
       <c r="I178" s="19"/>
       <c r="J178" s="20"/>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:10">
       <c r="B179" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F179" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G179" s="18">
         <v>781242</v>
@@ -5060,21 +5036,21 @@
       <c r="I179" s="19"/>
       <c r="J179" s="20"/>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:10">
       <c r="B180" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F180" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G180" s="18">
         <v>781242</v>
@@ -5083,21 +5059,21 @@
       <c r="I180" s="19"/>
       <c r="J180" s="20"/>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:10">
       <c r="B181" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F181" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G181" s="18">
         <v>781242</v>
@@ -5106,21 +5082,21 @@
       <c r="I181" s="19"/>
       <c r="J181" s="20"/>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:10">
       <c r="B182" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F182" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G182" s="18">
         <v>781242</v>
@@ -5129,21 +5105,21 @@
       <c r="I182" s="19"/>
       <c r="J182" s="20"/>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:10">
       <c r="B183" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F183" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G183" s="18">
         <v>781242</v>
@@ -5152,21 +5128,21 @@
       <c r="I183" s="19"/>
       <c r="J183" s="20"/>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:10">
       <c r="B184" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F184" s="18">
-        <v>24821</v>
+        <v>31249</v>
       </c>
       <c r="G184" s="18">
         <v>781242</v>
@@ -5175,21 +5151,21 @@
       <c r="I184" s="19"/>
       <c r="J184" s="20"/>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:10">
       <c r="B185" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="F185" s="18">
-        <v>28124</v>
+        <v>31249</v>
       </c>
       <c r="G185" s="18">
         <v>781242</v>
@@ -5198,18 +5174,18 @@
       <c r="I185" s="19"/>
       <c r="J185" s="20"/>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:10">
       <c r="B186" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="F186" s="18">
         <v>31249</v>
@@ -5221,18 +5197,18 @@
       <c r="I186" s="19"/>
       <c r="J186" s="20"/>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:10">
       <c r="B187" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F187" s="18">
         <v>31249</v>
@@ -5244,18 +5220,18 @@
       <c r="I187" s="19"/>
       <c r="J187" s="20"/>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:10">
       <c r="B188" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="F188" s="18">
         <v>31249</v>
@@ -5267,18 +5243,18 @@
       <c r="I188" s="19"/>
       <c r="J188" s="20"/>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:10">
       <c r="B189" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F189" s="18">
         <v>31249</v>
@@ -5290,18 +5266,18 @@
       <c r="I189" s="19"/>
       <c r="J189" s="20"/>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:10">
       <c r="B190" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="F190" s="18">
         <v>31249</v>
@@ -5313,18 +5289,18 @@
       <c r="I190" s="19"/>
       <c r="J190" s="20"/>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:10">
       <c r="B191" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
@@ -5336,18 +5312,18 @@
       <c r="I191" s="19"/>
       <c r="J191" s="20"/>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:10">
       <c r="B192" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F192" s="18">
         <v>31249</v>
@@ -5359,18 +5335,18 @@
       <c r="I192" s="19"/>
       <c r="J192" s="20"/>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:10">
       <c r="B193" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F193" s="18">
         <v>31249</v>
@@ -5382,18 +5358,18 @@
       <c r="I193" s="19"/>
       <c r="J193" s="20"/>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:10">
       <c r="B194" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F194" s="18">
         <v>31249</v>
@@ -5405,18 +5381,18 @@
       <c r="I194" s="19"/>
       <c r="J194" s="20"/>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:10">
       <c r="B195" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F195" s="18">
         <v>31249</v>
@@ -5428,18 +5404,18 @@
       <c r="I195" s="19"/>
       <c r="J195" s="20"/>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:10">
       <c r="B196" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F196" s="18">
         <v>31249</v>
@@ -5451,18 +5427,18 @@
       <c r="I196" s="19"/>
       <c r="J196" s="20"/>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:10">
       <c r="B197" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F197" s="18">
         <v>31249</v>
@@ -5474,18 +5450,18 @@
       <c r="I197" s="19"/>
       <c r="J197" s="20"/>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:10">
       <c r="B198" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F198" s="18">
         <v>31249</v>
@@ -5497,18 +5473,18 @@
       <c r="I198" s="19"/>
       <c r="J198" s="20"/>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:10">
       <c r="B199" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F199" s="18">
         <v>31249</v>
@@ -5520,18 +5496,18 @@
       <c r="I199" s="19"/>
       <c r="J199" s="20"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:10">
       <c r="B200" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F200" s="18">
         <v>31249</v>
@@ -5543,18 +5519,18 @@
       <c r="I200" s="19"/>
       <c r="J200" s="20"/>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:10">
       <c r="B201" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F201" s="18">
         <v>31249</v>
@@ -5566,18 +5542,18 @@
       <c r="I201" s="19"/>
       <c r="J201" s="20"/>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:10">
       <c r="B202" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F202" s="18">
         <v>31249</v>
@@ -5589,18 +5565,18 @@
       <c r="I202" s="19"/>
       <c r="J202" s="20"/>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:10">
       <c r="B203" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F203" s="18">
         <v>31249</v>
@@ -5612,18 +5588,18 @@
       <c r="I203" s="19"/>
       <c r="J203" s="20"/>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:10">
       <c r="B204" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F204" s="18">
         <v>31249</v>
@@ -5635,21 +5611,21 @@
       <c r="I204" s="19"/>
       <c r="J204" s="20"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:10">
       <c r="B205" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="F205" s="18">
-        <v>31249</v>
+        <v>3125</v>
       </c>
       <c r="G205" s="18">
         <v>781242</v>
@@ -5658,18 +5634,18 @@
       <c r="I205" s="19"/>
       <c r="J205" s="20"/>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:10">
       <c r="B206" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F206" s="18">
         <v>31249</v>
@@ -5681,18 +5657,18 @@
       <c r="I206" s="19"/>
       <c r="J206" s="20"/>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:10">
       <c r="B207" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F207" s="18">
         <v>31249</v>
@@ -5704,18 +5680,18 @@
       <c r="I207" s="19"/>
       <c r="J207" s="20"/>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:10">
       <c r="B208" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="F208" s="18">
         <v>31249</v>
@@ -5727,18 +5703,18 @@
       <c r="I208" s="19"/>
       <c r="J208" s="20"/>
     </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:10">
       <c r="B209" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F209" s="18">
         <v>31249</v>
@@ -5750,18 +5726,18 @@
       <c r="I209" s="19"/>
       <c r="J209" s="20"/>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:10">
       <c r="B210" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F210" s="18">
         <v>31249</v>
@@ -5773,18 +5749,18 @@
       <c r="I210" s="19"/>
       <c r="J210" s="20"/>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:10">
       <c r="B211" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="F211" s="18">
         <v>31249</v>
@@ -5796,18 +5772,18 @@
       <c r="I211" s="19"/>
       <c r="J211" s="20"/>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:10">
       <c r="B212" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F212" s="18">
         <v>31249</v>
@@ -5819,18 +5795,18 @@
       <c r="I212" s="19"/>
       <c r="J212" s="20"/>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:10">
       <c r="B213" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F213" s="18">
         <v>31249</v>
@@ -5842,18 +5818,18 @@
       <c r="I213" s="19"/>
       <c r="J213" s="20"/>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:10">
       <c r="B214" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F214" s="18">
         <v>31249</v>
@@ -5865,18 +5841,18 @@
       <c r="I214" s="19"/>
       <c r="J214" s="20"/>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:10">
       <c r="B215" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F215" s="18">
         <v>31249</v>
@@ -5888,18 +5864,18 @@
       <c r="I215" s="19"/>
       <c r="J215" s="20"/>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:10">
       <c r="B216" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="F216" s="18">
         <v>31249</v>
@@ -5911,18 +5887,18 @@
       <c r="I216" s="19"/>
       <c r="J216" s="20"/>
     </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:10">
       <c r="B217" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F217" s="18">
         <v>31249</v>
@@ -5934,18 +5910,18 @@
       <c r="I217" s="19"/>
       <c r="J217" s="20"/>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:10">
       <c r="B218" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F218" s="18">
         <v>31249</v>
@@ -5957,18 +5933,18 @@
       <c r="I218" s="19"/>
       <c r="J218" s="20"/>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:10">
       <c r="B219" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F219" s="18">
         <v>31249</v>
@@ -5980,18 +5956,18 @@
       <c r="I219" s="19"/>
       <c r="J219" s="20"/>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:10">
       <c r="B220" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F220" s="18">
         <v>31249</v>
@@ -6003,18 +5979,18 @@
       <c r="I220" s="19"/>
       <c r="J220" s="20"/>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:10">
       <c r="B221" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F221" s="18">
         <v>31249</v>
@@ -6026,18 +6002,18 @@
       <c r="I221" s="19"/>
       <c r="J221" s="20"/>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:10">
       <c r="B222" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F222" s="18">
         <v>31249</v>
@@ -6049,18 +6025,18 @@
       <c r="I222" s="19"/>
       <c r="J222" s="20"/>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:10">
       <c r="B223" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="F223" s="18">
         <v>31249</v>
@@ -6072,18 +6048,18 @@
       <c r="I223" s="19"/>
       <c r="J223" s="20"/>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:10">
       <c r="B224" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="F224" s="18">
         <v>31249</v>
@@ -6095,18 +6071,18 @@
       <c r="I224" s="19"/>
       <c r="J224" s="20"/>
     </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:10">
       <c r="B225" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F225" s="18">
         <v>31249</v>
@@ -6118,18 +6094,18 @@
       <c r="I225" s="19"/>
       <c r="J225" s="20"/>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:10">
       <c r="B226" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F226" s="18">
         <v>31249</v>
@@ -6141,18 +6117,18 @@
       <c r="I226" s="19"/>
       <c r="J226" s="20"/>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:10">
       <c r="B227" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F227" s="18">
         <v>31249</v>
@@ -6164,18 +6140,18 @@
       <c r="I227" s="19"/>
       <c r="J227" s="20"/>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:10">
       <c r="B228" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F228" s="18">
         <v>31249</v>
@@ -6187,18 +6163,18 @@
       <c r="I228" s="19"/>
       <c r="J228" s="20"/>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:10">
       <c r="B229" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F229" s="18">
         <v>31249</v>
@@ -6210,18 +6186,18 @@
       <c r="I229" s="19"/>
       <c r="J229" s="20"/>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:10">
       <c r="B230" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="F230" s="18">
         <v>31249</v>
@@ -6233,18 +6209,18 @@
       <c r="I230" s="19"/>
       <c r="J230" s="20"/>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:10">
       <c r="B231" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="F231" s="18">
         <v>31249</v>
@@ -6256,18 +6232,18 @@
       <c r="I231" s="19"/>
       <c r="J231" s="20"/>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:10">
       <c r="B232" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F232" s="18">
         <v>31249</v>
@@ -6279,18 +6255,18 @@
       <c r="I232" s="19"/>
       <c r="J232" s="20"/>
     </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:10">
       <c r="B233" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F233" s="18">
         <v>31249</v>
@@ -6302,18 +6278,18 @@
       <c r="I233" s="19"/>
       <c r="J233" s="20"/>
     </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:10">
       <c r="B234" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F234" s="18">
         <v>31249</v>
@@ -6325,18 +6301,18 @@
       <c r="I234" s="19"/>
       <c r="J234" s="20"/>
     </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:10">
       <c r="B235" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F235" s="18">
         <v>31249</v>
@@ -6348,18 +6324,18 @@
       <c r="I235" s="19"/>
       <c r="J235" s="20"/>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:10">
       <c r="B236" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F236" s="18">
         <v>31249</v>
@@ -6371,18 +6347,18 @@
       <c r="I236" s="19"/>
       <c r="J236" s="20"/>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:10">
       <c r="B237" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F237" s="18">
         <v>31249</v>
@@ -6394,18 +6370,18 @@
       <c r="I237" s="19"/>
       <c r="J237" s="20"/>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:10">
       <c r="B238" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="F238" s="18">
         <v>31249</v>
@@ -6417,18 +6393,18 @@
       <c r="I238" s="19"/>
       <c r="J238" s="20"/>
     </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:10">
       <c r="B239" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="F239" s="18">
         <v>31249</v>
@@ -6440,18 +6416,18 @@
       <c r="I239" s="19"/>
       <c r="J239" s="20"/>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:10">
       <c r="B240" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="F240" s="18">
         <v>31249</v>
@@ -6463,21 +6439,21 @@
       <c r="I240" s="19"/>
       <c r="J240" s="20"/>
     </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:10">
       <c r="B241" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="F241" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G241" s="18">
         <v>781242</v>
@@ -6486,21 +6462,21 @@
       <c r="I241" s="19"/>
       <c r="J241" s="20"/>
     </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:10">
       <c r="B242" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="F242" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G242" s="18">
         <v>781242</v>
@@ -6509,21 +6485,21 @@
       <c r="I242" s="19"/>
       <c r="J242" s="20"/>
     </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:10">
       <c r="B243" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F243" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G243" s="18">
         <v>781242</v>
@@ -6532,21 +6508,21 @@
       <c r="I243" s="19"/>
       <c r="J243" s="20"/>
     </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:10">
       <c r="B244" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="F244" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G244" s="18">
         <v>781242</v>
@@ -6555,21 +6531,21 @@
       <c r="I244" s="19"/>
       <c r="J244" s="20"/>
     </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:10">
       <c r="B245" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F245" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G245" s="18">
         <v>781242</v>
@@ -6578,21 +6554,21 @@
       <c r="I245" s="19"/>
       <c r="J245" s="20"/>
     </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:10">
       <c r="B246" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F246" s="18">
-        <v>27578</v>
+        <v>28124</v>
       </c>
       <c r="G246" s="18">
         <v>781242</v>
@@ -6601,402 +6577,57 @@
       <c r="I246" s="19"/>
       <c r="J246" s="20"/>
     </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B247" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D247" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E247" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F247" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G247" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H247" s="19"/>
-      <c r="I247" s="19"/>
-      <c r="J247" s="20"/>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B248" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C248" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D248" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E248" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F248" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G248" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H248" s="19"/>
-      <c r="I248" s="19"/>
-      <c r="J248" s="20"/>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B249" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C249" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D249" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E249" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F249" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G249" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H249" s="19"/>
-      <c r="I249" s="19"/>
-      <c r="J249" s="20"/>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B250" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C250" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D250" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E250" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F250" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G250" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H250" s="19"/>
-      <c r="I250" s="19"/>
-      <c r="J250" s="20"/>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B251" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C251" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D251" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E251" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F251" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G251" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H251" s="19"/>
-      <c r="I251" s="19"/>
-      <c r="J251" s="20"/>
-    </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B252" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D252" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E252" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F252" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G252" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H252" s="19"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="20"/>
-    </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B253" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C253" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D253" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E253" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F253" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G253" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H253" s="19"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="20"/>
-    </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B254" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C254" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D254" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E254" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F254" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G254" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H254" s="19"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="20"/>
-    </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B255" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C255" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D255" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E255" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F255" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G255" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H255" s="19"/>
-      <c r="I255" s="19"/>
-      <c r="J255" s="20"/>
-    </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B256" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C256" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D256" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E256" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F256" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G256" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H256" s="19"/>
-      <c r="I256" s="19"/>
-      <c r="J256" s="20"/>
-    </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B257" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D257" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E257" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F257" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G257" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H257" s="19"/>
-      <c r="I257" s="19"/>
-      <c r="J257" s="20"/>
-    </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B258" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C258" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D258" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E258" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F258" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G258" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H258" s="19"/>
-      <c r="I258" s="19"/>
-      <c r="J258" s="20"/>
-    </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B259" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C259" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D259" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E259" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F259" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G259" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H259" s="19"/>
-      <c r="I259" s="19"/>
-      <c r="J259" s="20"/>
-    </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B260" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C260" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D260" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E260" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F260" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G260" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H260" s="19"/>
-      <c r="I260" s="19"/>
-      <c r="J260" s="20"/>
-    </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B261" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C261" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D261" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E261" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F261" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G261" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H261" s="19"/>
-      <c r="I261" s="19"/>
-      <c r="J261" s="20"/>
-    </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B262" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C262" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D262" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E262" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F262" s="24">
-        <v>13789</v>
-      </c>
-      <c r="G262" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H262" s="25"/>
-      <c r="I262" s="25"/>
-      <c r="J262" s="26"/>
-    </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B267" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C267" s="32"/>
-      <c r="H267" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I267" s="1"/>
-      <c r="J267" s="1"/>
-    </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B268" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C268" s="32"/>
-      <c r="H268" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I268" s="1"/>
-      <c r="J268" s="1"/>
+    <row r="247" spans="2:10">
+      <c r="B247" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D247" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E247" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F247" s="24">
+        <v>28124</v>
+      </c>
+      <c r="G247" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H247" s="25"/>
+      <c r="I247" s="25"/>
+      <c r="J247" s="26"/>
+    </row>
+    <row r="252" spans="2:10">
+      <c r="B252" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C252" s="32"/>
+      <c r="H252" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+    </row>
+    <row r="253" spans="2:10">
+      <c r="B253" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C253" s="32"/>
+      <c r="H253" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="H268:J268"/>
-    <mergeCell ref="H267:J267"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="H253:J253"/>
+    <mergeCell ref="H252:J252"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
